--- a/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
@@ -556,7 +556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -567,7 +567,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N26" s="8"/>
       <c r="P26" s="7"/>
@@ -1302,7 +1302,7 @@
         <v>31</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N28" s="8"/>
       <c r="P28" s="7"/>
@@ -1370,7 +1370,7 @@
         <v>31</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N30" s="8"/>
       <c r="P30" s="7"/>
@@ -1435,7 +1435,7 @@
         <v>31</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="N32" s="8"/>
       <c r="P32" s="7"/>

--- a/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
@@ -239,7 +239,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +269,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +302,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,7 +622,7 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,6 +636,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="M2">
         <v>-1.01</v>
       </c>
@@ -637,19 +645,23 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" t="s">
         <v>40</v>
@@ -658,6 +670,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -709,25 +722,18 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" t="str">
         <f>"UC_MAX_T"&amp;S8&amp;T8&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TPA_ELC_REGION</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="str">
         <f>"T"&amp;S8&amp;T8&amp;"*"</f>
         <v>TPA*</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="str">
-        <f>"T"&amp;S8&amp;"*"</f>
-        <v>TP*</v>
-      </c>
-      <c r="G8" t="str">
-        <f>F8</f>
-        <v>TP*</v>
-      </c>
       <c r="H8" s="8">
         <v>2020</v>
       </c>
@@ -761,20 +767,13 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D9" t="str">
-        <f t="shared" ref="D9:D10" si="0">"T"&amp;S9&amp;T9&amp;"*"</f>
+      <c r="A9" s="11"/>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"T"&amp;S9&amp;T9&amp;"*"</f>
         <v>TPA*</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" ref="F9:F10" si="1">"T"&amp;S9&amp;"*"</f>
-        <v>TP*</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ref="G9:G17" si="2">F9</f>
-        <v>TP*</v>
       </c>
       <c r="H9" s="8">
         <v>2060</v>
@@ -800,24 +799,17 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" t="str">
-        <f t="shared" ref="B10:B16" si="3">"UC_MAX_T"&amp;S10&amp;T10&amp;"_ELC"&amp;"_REGION"</f>
+        <f t="shared" ref="B10:B16" si="0">"UC_MAX_T"&amp;S10&amp;T10&amp;"_ELC"&amp;"_REGION"</f>
         <v>UC_MAX_TFV_ELC_REGION</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"T"&amp;S10&amp;T10&amp;"*"</f>
         <v>TFV*</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>TF*</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>TF*</v>
       </c>
       <c r="H10" s="8">
         <v>2020</v>
@@ -829,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -850,20 +842,13 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D17" si="4">"T"&amp;S11&amp;T11&amp;"*"</f>
+      <c r="A11" s="11"/>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="str">
+        <f>"T"&amp;S11&amp;T11&amp;"*"</f>
         <v>TFV*</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ref="F11:F17" si="5">"T"&amp;S11&amp;"*"</f>
-        <v>TF*</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>TF*</v>
       </c>
       <c r="H11" s="8">
         <v>2060</v>
@@ -875,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.64</v>
+        <v>-0.64</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -887,24 +872,17 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>UC_MAX_TFT_ELC_REGION</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="4"/>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ref="F12:F17" si="1">"T"&amp;S12&amp;T12&amp;"*"</f>
         <v>TFT*</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="5"/>
-        <v>TF*</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>TF*</v>
       </c>
       <c r="H12" s="7">
         <v>2020</v>
@@ -916,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -935,20 +913,13 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" t="str">
-        <f t="shared" si="4"/>
+      <c r="A13" s="11"/>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
         <v>TFT*</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="5"/>
-        <v>TF*</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>TF*</v>
       </c>
       <c r="H13" s="7">
         <v>2060</v>
@@ -960,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="N13" s="8"/>
       <c r="S13" t="s">
@@ -971,24 +942,17 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>UC_MAX_TPB_ELC_REGION</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="4"/>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
         <v>TPB*</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="5"/>
-        <v>TP*</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>TP*</v>
       </c>
       <c r="H14" s="8">
         <v>2020</v>
@@ -1000,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1019,20 +983,13 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" t="str">
-        <f t="shared" si="4"/>
+      <c r="A15" s="11"/>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
         <v>TPB*</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="5"/>
-        <v>TP*</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="2"/>
-        <v>TP*</v>
       </c>
       <c r="H15" s="8">
         <v>2060</v>
@@ -1044,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.64</v>
+        <v>-0.64</v>
       </c>
       <c r="N15" s="8"/>
       <c r="S15" t="s">
@@ -1055,24 +1012,17 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>UC_MAX_TPC_ELC_REGION</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="4"/>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
         <v>TPC*</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="5"/>
-        <v>TP*</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="2"/>
-        <v>TP*</v>
       </c>
       <c r="H16" s="8">
         <v>2020</v>
@@ -1084,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1102,21 +1052,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17" t="str">
-        <f t="shared" si="4"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
         <v>TPC*</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="5"/>
-        <v>TP*</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="2"/>
-        <v>TP*</v>
       </c>
       <c r="H17" s="8">
         <v>2060</v>
@@ -1128,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.64</v>
+        <v>-0.64</v>
       </c>
       <c r="N17" s="8"/>
       <c r="S17" t="s">
@@ -1137,6 +1080,9 @@
       <c r="T17" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H33" s="7"/>

--- a/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_TRA_NOEL_Maxshare_Constraint.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="23250" windowHeight="13170"/>
@@ -109,9 +109,6 @@
     <t>UC_FLO~2020</t>
   </si>
   <si>
-    <t>UC_FLO~2060</t>
-  </si>
-  <si>
     <t>TRA*</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>UC_RHSRTS~UP~2020</t>
+  </si>
+  <si>
+    <t>UC_FLO~2050</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,7 +595,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,13 +659,13 @@
         <v>25</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>6</v>
@@ -685,7 +685,7 @@
         <v>TFV*</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="str">
         <f>"T"&amp;O8&amp;P8&amp;"*"</f>
@@ -767,7 +767,7 @@
         <v>TFT*</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -849,7 +849,7 @@
         <v>TPB*</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -931,7 +931,7 @@
         <v>TPC*</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -1013,7 +1013,7 @@
         <v>TPA*</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
